--- a/Datos/Database by set/Set with text box/Xlsx sets/Commander Collection Green (CC1).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Commander Collection Green (CC1).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A40"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,273 +444,56 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bane of Progress</t>
+          <t>('Bane of Progress', ['{4}{G}{G}', 'Creature — Elemental', 'When Bane of Progress enters the battlefield, destroy all artifacts and enchantments. Put a +1/+1 counter on Bane of Progress for each permanent destroyed this way.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{4}{G}{G}</t>
+          <t>('Command Tower', ['Land', '{T}: Add one mana of any color in your commander’s color identity.'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Creature — Elemental</t>
+          <t>("Freyalise, Llanowar's Fury", ['{3}{G}{G}', 'Legendary Planeswalker — Freyalise', '+2: Create a 1/1 green Elf Druid creature token with “{T}: Add {G}.”', '−2: Destroy target artifact or enchantment.', '−6: Draw a card for each green creature you control.', 'Freyalise, Llanowar’s Fury can be your commander.', 'Loyalty: 3'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>When Bane of Progress enters the battlefield, destroy all artifacts and enchantments. Put a +1/+1 counter on Bane of Progress for each permanent destroyed this way.</t>
+          <t>('Omnath, Locus of Mana', ['{2}{G}', 'Legendary Creature — Elemental', 'You don’t lose unspent green mana as steps and phases end.', 'Omnath, Locus of Mana gets +1/+1 for each unspent green mana you have.', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>('Seedborn Muse', ['{3}{G}{G}', 'Creature — Spirit', 'Untap all permanents you control during each other player’s untap step.', '2/4'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Command Tower</t>
+          <t>('Sol Ring', ['{1}', 'Artifact', '{T}: Add {C}{C}.'])</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Land</t>
+          <t>('Sylvan Library', ['{1}{G}', 'Enchantment', 'At the beginning of your draw step, you may draw two additional cards. If you do, choose two cards in your hand drawn this turn. For each of those cards, pay 4 life or put the card on top of your library.'])</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>{T}: Add one mana of any color in your commander’s color identity.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Freyalise, Llanowar's Fury</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>{3}{G}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Legendary Planeswalker — Freyalise</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>+2: Create a 1/1 green Elf Druid creature token with “{T}: Add {G}.”</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>−2: Destroy target artifact or enchantment.</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>−6: Draw a card for each green creature you control.</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Freyalise, Llanowar’s Fury can be your commander.</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Loyalty: 3</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Omnath, Locus of Mana</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>{2}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Legendary Creature — Elemental</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>You don’t lose unspent green mana as steps and phases end.</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Omnath, Locus of Mana gets +1/+1 for each unspent green mana you have.</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Seedborn Muse</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>{3}{G}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Creature — Spirit</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Untap all permanents you control during each other player’s untap step.</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>2/4</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Sol Ring</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>{1}</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Artifact</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>{T}: Add {C}{C}.</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Sylvan Library</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>{1}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Enchantment</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>At the beginning of your draw step, you may draw two additional cards. If you do, choose two cards in your hand drawn this turn. For each of those cards, pay 4 life or put the card on top of your library.</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Worldly Tutor</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Search your library for a creature card and reveal that card. Shuffle your library, then put the card on top of it.</t>
+          <t>('Worldly Tutor', ['{G}', 'Instant', 'Search your library for a creature card and reveal that card. Shuffle your library, then put the card on top of it.'])</t>
         </is>
       </c>
     </row>
